--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.2/avg_0.004_scores.xlsx
@@ -100,12 +100,12 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -118,13 +118,13 @@
     <t>hope</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>join</t>
   </si>
   <si>
     <t>hand</t>
@@ -1126,25 +1126,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.748898678414097</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L19">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1152,25 +1152,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.7333333333333333</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L20">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1282,25 +1282,25 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.6257668711656442</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L25">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="M25">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1308,25 +1308,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L26">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1334,25 +1334,25 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.6097560975609756</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="10:17">
